--- a/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
+++ b/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C15BBB-A61A-4513-ACCC-19B3989D4081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1AB8C7-D8C0-400D-BBE4-C8B2B4C7F756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSPad" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,40 @@
     <sheet name="FanPad" sheetId="3" r:id="rId3"/>
     <sheet name="FanPad+Crossover" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="figure" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">figure!$K$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">figure!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">figure!$B$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">figure!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">figure!$C$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">figure!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">figure!$D$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">figure!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">figure!$F$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">figure!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">figure!$G$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">figure!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">figure!$L$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">figure!$H$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">figure!$H$3:$H$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">figure!$I$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">figure!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">figure!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">figure!$M$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">figure!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">figure!$N$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">figure!$A$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">figure!$A$3:$A$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -176,6 +203,22 @@
     <t>WPM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SKPad+Overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FanPad+Overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -248,15 +291,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,6 +319,2510 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{3BEA1424-286C-4F83-B3DE-7132DC6672A7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{91E3293C-25D7-4BF3-8FB7-38205ED1A409}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>SKPad+Overlap</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{935F5566-C031-40E0-8037-50980D49B467}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{48E38FCC-3875-4650-9F13-D1066C0B58E8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>FanPad+Overlap</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>NCER</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.25"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1100" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1AA831B5-0C30-4FC0-9EDB-08DEFF05B63C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DC9568AE-202C-4551-B6F6-B3FA068850CC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>SKPad+Overlap</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C99FC074-020F-41DB-A8FC-8DA9E8B937B3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1B1DC616-E15E-4A3C-9510-17540D8C2A4A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>FanPad+Overlap</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Entry Speed</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="16" min="7"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>WPM</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{32848778-98A6-4ED1-A4CB-FFDCD2F9EF41}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E86BE7BB-3647-407E-B218-2F482B651E25}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>SKPad+Overlap</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7ACFAD79-E86B-445D-A92F-C81691081BC6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4B484333-C3EC-4621-B29D-3680C2752EBA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>FanPad+Overlap</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>TER</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Error Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF6F248-99DB-4349-8DE4-E4067A114D3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8907780" y="3322320"/>
+              <a:ext cx="3962400" cy="2156460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B13D2B-854D-4B4F-A2B9-B21DD1D51C10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="952500" y="3017520"/>
+              <a:ext cx="3962400" cy="2529840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="图表 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54204993-4308-44DD-8E26-A7FEE27EEAD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5364480" y="2948940"/>
+              <a:ext cx="3962400" cy="2529840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -287,34 +2834,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -563,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1667,28 +4214,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2178,538 +4725,538 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="J28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="R28" s="3" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="R28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>10</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>20</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>10</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>10</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>20</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>10</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="1">
         <v>10</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>96.6401501</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>116.60892879999999</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>213.24907890000006</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>0.85047748930997924</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>0.72515997678961697</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>1.5756374660995964</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>4.4132564182498016E-2</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="1">
         <v>9.1328551382193077E-2</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="1">
         <v>0.13546111556469109</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>9.66401501</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>11.660892879999999</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>10.662453945000003</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>8.5047748930997924E-2</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>7.2515997678961691E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>7.8781873304979821E-2</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>4.4132564182498019E-3</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="1">
         <v>9.132855138219308E-3</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="1">
         <v>6.773055778234555E-3</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1.2496704206235261</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>4.116957189872311</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>3.5914344543652748</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>4.9550452541305473E-3</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>1.0947607603709485E-3</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>2.9070251619856837E-3</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>5.9541188042970807E-5</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="1">
         <v>1.1606314638623903E-4</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="1">
         <v>8.9042740539504086E-5</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="J34" s="3" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="R34" s="3" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="R34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>20</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>10</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>10</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>20</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <v>10</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="1">
         <v>10</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>106.0517191</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>115.12409019999998</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>221.17580929999997</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>0.71176850086468935</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>0.79947162461217869</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>1.5112401254768677</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="1">
         <v>9.3756871333908517E-2</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="1">
         <v>6.9815771344964056E-2</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="1">
         <v>0.16357264267887256</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>10.605171909999999</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>11.512409019999998</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>11.058790464999998</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>7.1176850086468929E-2</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>7.9947162461217872E-2</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>7.556200627384338E-2</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <v>9.3756871333908511E-3</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="1">
         <v>6.9815771344964054E-3</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="1">
         <v>8.1786321339436287E-3</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>1.5327105521015609</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>3.2555275103031058</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>2.4847125489709709</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>2.0334802147049069E-3</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>2.2994019012636041E-3</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>2.07265952313E-3</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <v>1.9278050623518036E-4</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="1">
         <v>7.3498103357223693E-5</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="1">
         <v>1.2764033156661413E-4</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="J40" s="3" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="R40" s="3" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="R40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>20</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>20</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="J41" s="2" t="s">
+      <c r="D41" s="1"/>
+      <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>20</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>20</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="R41" s="2" t="s">
+      <c r="M41" s="1"/>
+      <c r="R41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <v>20</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="1">
         <v>20</v>
       </c>
-      <c r="U41" s="2"/>
+      <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>202.69186919999999</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>231.73301899999996</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="J42" s="2" t="s">
+      <c r="D42" s="1"/>
+      <c r="J42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>1.5622459901746686</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>1.5246316014017958</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="R42" s="2" t="s">
+      <c r="M42" s="1"/>
+      <c r="R42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <v>0.13788943551640653</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="1">
         <v>0.16114432272715712</v>
       </c>
-      <c r="U42" s="2"/>
+      <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>10.134593460000001</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>11.586650949999999</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="J43" s="2" t="s">
+      <c r="D43" s="1"/>
+      <c r="J43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>7.8112299508733427E-2</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>7.6231580070089774E-2</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="R43" s="2" t="s">
+      <c r="M43" s="1"/>
+      <c r="R43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="1">
         <v>6.8944717758203265E-3</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="1">
         <v>8.0572161363578563E-3</v>
       </c>
-      <c r="U43" s="2"/>
+      <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>1.5510689635059527</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>3.498031557104289</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="J44" s="2" t="s">
+      <c r="D44" s="1"/>
+      <c r="J44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>3.3609862312260455E-3</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>1.6222934213061156E-3</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="R44" s="2" t="s">
+      <c r="M44" s="1"/>
+      <c r="R44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="1">
         <v>1.2600125481664401E-4</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="1">
         <v>9.1010064891456545E-5</v>
       </c>
-      <c r="U44" s="2"/>
+      <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
     </row>
     <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2723,375 +5270,375 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P48" s="5" t="s">
+      <c r="P48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S48" s="5" t="s">
+      <c r="S48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="T48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U48" s="5" t="s">
+      <c r="U48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V48" s="5" t="s">
+      <c r="V48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W48" s="5" t="s">
+      <c r="W48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X48" s="5" t="s">
+      <c r="X48" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>1.5708263708571195</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>1</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>1.5708263708571195</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0.61874826175163133</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>0.43666055365755696</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>4.1131652768128939</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>1.0367543698201753E-4</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>1</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>1.0367543698201753E-4</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>3.9941655062434911E-2</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>0.84271936114536972</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="1">
         <v>4.1131652768128939</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="1">
         <v>1.9756448917282801E-5</v>
       </c>
-      <c r="T49" s="2">
+      <c r="T49" s="1">
         <v>1</v>
       </c>
-      <c r="U49" s="2">
+      <c r="U49" s="1">
         <v>1.9756448917282801E-5</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="1">
         <v>0.17883875523664886</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W49" s="1">
         <v>0.67488864138086324</v>
       </c>
-      <c r="X49" s="2">
+      <c r="X49" s="1">
         <v>4.1131652768128939</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>21.084709542651012</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>1</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>21.084709542651012</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>8.3052637905071229</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>6.6255472517672024E-3</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>4.1131652768128939</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>3.5371056068961293E-5</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>1</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>3.5371056068961293E-5</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>1.3626935770191572E-2</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <v>0.90771928914619504</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="1">
         <v>4.1131652768128939</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="1">
         <v>1.3519744479616874E-5</v>
       </c>
-      <c r="T50" s="2">
+      <c r="T50" s="1">
         <v>1</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U50" s="1">
         <v>1.3519744479616874E-5</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V50" s="1">
         <v>0.12238303978490361</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W50" s="1">
         <v>0.72850253674589749</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X50" s="1">
         <v>4.1131652768128939</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>2.9682924646334214</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>2.9682924646334214</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>1.1692099374803864</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0.28675410010434477</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>4.1131652768128939</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>1.1344447868989471E-3</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>1</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>1.1344447868989471E-3</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>0.43705243676527261</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>0.5127575525289626</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>4.1131652768128939</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <v>1.2651212934210437E-4</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51" s="1">
         <v>1</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51" s="1">
         <v>1.2651212934210437E-4</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51" s="1">
         <v>1.1452094366051502</v>
       </c>
-      <c r="W51" s="2">
+      <c r="W51" s="1">
         <v>0.29167699857588086</v>
       </c>
-      <c r="X51" s="2">
+      <c r="X51" s="1">
         <v>4.1131652768128939</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>91.393791056104263</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>36</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>2.5387164182251185</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="J52" s="2" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="J52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>9.3444193174230056E-2</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>36</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>2.5956720326175014E-3</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="R52" s="2" t="s">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="R52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <v>3.9769464961945241E-3</v>
       </c>
-      <c r="T52" s="2">
+      <c r="T52" s="1">
         <v>36</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52" s="1">
         <v>1.1047073600540345E-4</v>
       </c>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>117.01761943424582</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>39</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="J54" s="4" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="J54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="3">
         <v>9.4717684454179982E-2</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="3">
         <v>39</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="R54" s="4" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="R54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S54" s="3">
         <v>4.1367348189335282E-3</v>
       </c>
-      <c r="T54" s="4">
+      <c r="T54" s="3">
         <v>39</v>
       </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3102,4 +5649,450 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2AED30-E9E4-42F3-9AE7-A190D314D87C}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8.0696250000000003</v>
+      </c>
+      <c r="B3">
+        <v>8.5912609999999994</v>
+      </c>
+      <c r="C3">
+        <v>8.5382680000000004</v>
+      </c>
+      <c r="D3">
+        <v>8.1561760000000003</v>
+      </c>
+      <c r="F3">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.3209876543209867E-2</v>
+      </c>
+      <c r="H3">
+        <v>8.0882352941176475E-2</v>
+      </c>
+      <c r="I3">
+        <v>7.9710144927536225E-2</v>
+      </c>
+      <c r="K3">
+        <v>7.0921985815602844E-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.9411764705882349E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.1739130434782612E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.5789139999999993</v>
+      </c>
+      <c r="B4">
+        <v>9.1712140000000009</v>
+      </c>
+      <c r="C4">
+        <v>9.7889529999999993</v>
+      </c>
+      <c r="D4">
+        <v>10.4880228</v>
+      </c>
+      <c r="F4">
+        <v>1.515151515151515E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="H4">
+        <v>9.4890510948905105E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>7.6923076923076927E-3</v>
+      </c>
+      <c r="M4">
+        <v>2.18978102189781E-2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.172193</v>
+      </c>
+      <c r="B5">
+        <v>11.6366949</v>
+      </c>
+      <c r="C5">
+        <v>12.5423822</v>
+      </c>
+      <c r="D5">
+        <v>11.451359999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.20606060606060611</v>
+      </c>
+      <c r="G5">
+        <v>0.06</v>
+      </c>
+      <c r="H5">
+        <v>8.9041095890410954E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.17721518987341769</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10.9330654</v>
+      </c>
+      <c r="B6">
+        <v>11.07775</v>
+      </c>
+      <c r="C6">
+        <v>13.8219709</v>
+      </c>
+      <c r="D6">
+        <v>13.5907488</v>
+      </c>
+      <c r="F6">
+        <v>0.17123287671232881</v>
+      </c>
+      <c r="G6">
+        <v>3.4482758620689648E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="I6">
+        <v>6.0810810810810807E-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8.6586759999999998</v>
+      </c>
+      <c r="B7">
+        <v>9.7173339999999993</v>
+      </c>
+      <c r="C7">
+        <v>8.3716489999999997</v>
+      </c>
+      <c r="D7">
+        <v>9.7924989999999994</v>
+      </c>
+      <c r="F7">
+        <v>6.2893081761006289E-2</v>
+      </c>
+      <c r="G7">
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="I7">
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="K7">
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="L7">
+        <v>3.2679738562091512E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.298701298701299E-2</v>
+      </c>
+      <c r="N7">
+        <v>7.3529411764705881E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9.8345350000000007</v>
+      </c>
+      <c r="B8">
+        <v>9.8494410000000006</v>
+      </c>
+      <c r="C8">
+        <v>12.301046400000001</v>
+      </c>
+      <c r="D8">
+        <v>12.101353599999999</v>
+      </c>
+      <c r="F8">
+        <v>9.9378881987577633E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="I8">
+        <v>0.1310344827586207</v>
+      </c>
+      <c r="K8">
+        <v>6.2111801242236021E-3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.379310344827586E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11.470965400000001</v>
+      </c>
+      <c r="B9">
+        <v>11.4354391</v>
+      </c>
+      <c r="C9">
+        <v>13.1038227</v>
+      </c>
+      <c r="D9">
+        <v>12.0410471</v>
+      </c>
+      <c r="F9">
+        <v>6.7114093959731542E-3</v>
+      </c>
+      <c r="G9">
+        <v>2.8368794326241131E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.870967741935484E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.11612903225806449</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.935483870967742E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10.229702</v>
+      </c>
+      <c r="B10">
+        <v>12.3341236</v>
+      </c>
+      <c r="C10">
+        <v>13.481775300000001</v>
+      </c>
+      <c r="D10">
+        <v>14.480551699999999</v>
+      </c>
+      <c r="F10">
+        <v>4.4303797468354431E-2</v>
+      </c>
+      <c r="G10">
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="H10">
+        <v>4.2944785276073622E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.61437908496732E-2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9.5543250000000004</v>
+      </c>
+      <c r="B11">
+        <v>10.4756327</v>
+      </c>
+      <c r="C11">
+        <v>11.685460000000001</v>
+      </c>
+      <c r="D11">
+        <v>11.8776207</v>
+      </c>
+      <c r="F11">
+        <v>0.1595092024539877</v>
+      </c>
+      <c r="G11">
+        <v>0.1096774193548387</v>
+      </c>
+      <c r="H11">
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="I11">
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.4539877300613501E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10.1381493</v>
+      </c>
+      <c r="B12">
+        <v>11.762828799999999</v>
+      </c>
+      <c r="C12">
+        <v>12.9736013</v>
+      </c>
+      <c r="D12">
+        <v>11.1447105</v>
+      </c>
+      <c r="F12">
+        <v>4.2682926829268303E-2</v>
+      </c>
+      <c r="G12">
+        <v>4.9295774647887321E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.4246575342465752E-2</v>
+      </c>
+      <c r="I12">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="N12">
+        <v>7.575757575757576E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
+++ b/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1AB8C7-D8C0-400D-BBE4-C8B2B4C7F756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04416F82-DBB8-49CE-B996-17561ABED571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSPad" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,36 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">figure!$K$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">figure!$K$3:$K$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">figure!$B$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">figure!$B$3:$B$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">figure!$C$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">figure!$C$3:$C$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">figure!$D$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">figure!$D$3:$D$12</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">figure!$F$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">figure!$F$3:$F$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">figure!$G$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">figure!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">figure!$L$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">figure!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">figure!$M$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">figure!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">figure!$N$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">figure!$A$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">figure!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">figure!$B$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">figure!$B$3:$B$12</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">figure!$L$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">figure!$H$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">figure!$H$3:$H$12</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">figure!$I$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">figure!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">figure!$C$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">figure!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">figure!$D$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">figure!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">figure!$F$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">figure!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">figure!$G$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">figure!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">figure!$H$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">figure!$H$3:$H$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">figure!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">figure!$I$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">figure!$I$3:$I$12</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">figure!$M$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">figure!$M$3:$M$12</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">figure!$N$2</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">figure!$N$3:$N$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">figure!$A$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">figure!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">figure!$K$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">figure!$K$3:$K$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -324,22 +332,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -349,7 +357,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3BEA1424-286C-4F83-B3DE-7132DC6672A7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -361,7 +369,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{91E3293C-25D7-4BF3-8FB7-38205ED1A409}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -373,7 +381,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{935F5566-C031-40E0-8037-50980D49B467}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -385,7 +393,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{48E38FCC-3875-4650-9F13-D1066C0B58E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -485,22 +493,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -510,7 +518,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1AA831B5-0C30-4FC0-9EDB-08DEFF05B63C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -523,7 +531,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DC9568AE-202C-4551-B6F6-B3FA068850CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -536,7 +544,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C99FC074-020F-41DB-A8FC-8DA9E8B937B3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -549,7 +557,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1B1DC616-E15E-4A3C-9510-17540D8C2A4A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -701,22 +709,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -726,7 +734,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{32848778-98A6-4ED1-A4CB-FFDCD2F9EF41}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -738,7 +746,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E86BE7BB-3647-407E-B218-2F482B651E25}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -750,7 +758,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7ACFAD79-E86B-445D-A92F-C81691081BC6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -762,7 +770,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4B484333-C3EC-4621-B29D-3680C2752EBA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3110,7 +3118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4214,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5534,7 +5542,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="1">
-        <v>91.393791056104263</v>
+        <v>91.393791056104305</v>
       </c>
       <c r="C52" s="1">
         <v>36</v>
@@ -5648,6 +5656,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5656,7 +5665,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
+++ b/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04416F82-DBB8-49CE-B996-17561ABED571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE525308-C0F7-4E82-AF67-C69AB94FCC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSPad" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">figure!$K$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">figure!$K$3:$K$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">figure!$L$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">figure!$L$3:$L$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">figure!$M$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">figure!$M$3:$M$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">figure!$N$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">figure!$G$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">figure!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">figure!$H$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">figure!$H$3:$H$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">figure!$I$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">figure!$I$3:$I$12</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">figure!$A$2</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">figure!$A$3:$A$12</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">figure!$B$2</definedName>
@@ -38,28 +38,20 @@
     <definedName name="_xlchart.v1.21" hidden="1">figure!$C$3:$C$12</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">figure!$D$2</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">figure!$D$3:$D$12</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">figure!$F$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">figure!$F$3:$F$12</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">figure!$G$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">figure!$G$3:$G$12</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">figure!$H$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">figure!$H$3:$H$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">figure!$L$3:$L$12</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">figure!$I$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">figure!$I$3:$I$12</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">figure!$M$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">figure!$M$3:$M$12</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">figure!$N$2</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">figure!$N$3:$N$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">figure!$K$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">figure!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">figure!$F$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">figure!$F$3:$F$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -227,6 +219,22 @@
     <t>NCER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大于FanPad-Ov 10%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于FanPad 10%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于SKPad-Ov 10%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于SKPad10%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -332,22 +340,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -357,7 +365,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3BEA1424-286C-4F83-B3DE-7132DC6672A7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -369,7 +377,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{91E3293C-25D7-4BF3-8FB7-38205ED1A409}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -381,7 +389,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{935F5566-C031-40E0-8037-50980D49B467}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -393,7 +401,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{48E38FCC-3875-4650-9F13-D1066C0B58E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -709,22 +717,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -734,7 +742,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{32848778-98A6-4ED1-A4CB-FFDCD2F9EF41}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -746,7 +754,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E86BE7BB-3647-407E-B218-2F482B651E25}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -758,7 +766,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7ACFAD79-E86B-445D-A92F-C81691081BC6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -770,7 +778,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4B484333-C3EC-4621-B29D-3680C2752EBA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3116,15 +3124,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3143,8 +3151,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3164,7 +3175,7 @@
         <v>7.0921985815602844E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3184,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3255,7 @@
         <v>6.2893081761006293E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3324,7 +3335,7 @@
         <v>2.4539877300613501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3344,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3363,8 +3374,11 @@
       <c r="F12">
         <v>7.0422535211267607E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3392,15 +3406,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3419,8 +3433,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3440,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>7.6923076923076927E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3479,8 +3496,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3499,8 +3519,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3519,8 +3542,11 @@
       <c r="F6">
         <v>3.2679738562091512E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3540,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3560,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3579,8 +3605,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3599,8 +3628,11 @@
       <c r="F10">
         <v>3.2258064516129031E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3619,8 +3651,11 @@
       <c r="F11">
         <v>2.1126760563380281E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3640,7 +3675,7 @@
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3668,15 +3703,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3695,8 +3730,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3754,7 @@
         <v>2.9411764705882349E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3736,7 +3774,7 @@
         <v>2.18978102189781E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3755,8 +3793,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3776,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3796,7 +3837,7 @@
         <v>1.298701298701299E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3816,7 +3857,7 @@
         <v>1.3333333333333331E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3836,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3856,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3876,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3895,8 +3936,11 @@
       <c r="F11">
         <v>1.3698630136986301E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3916,7 +3960,7 @@
         <v>0.1393939393939394</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3944,15 +3988,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3971,8 +4015,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3992,7 +4039,7 @@
         <v>2.1739130434782612E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4012,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4032,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4052,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4071,8 +4118,11 @@
       <c r="F6">
         <v>7.3529411764705881E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4092,7 +4142,7 @@
         <v>1.379310344827586E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4112,7 +4162,7 @@
         <v>1.935483870967742E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4132,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4152,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4222,7 @@
         <v>7.575757575757576E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4192,7 +4242,7 @@
         <v>1.470588235294118E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4222,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
+++ b/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE525308-C0F7-4E82-AF67-C69AB94FCC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE3A363-1A3F-4576-8745-317193475156}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSPad" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,36 @@
     <sheet name="figure" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">figure!$K$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">figure!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">figure!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">figure!$A$3:$A$12</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">figure!$G$2</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">figure!$G$3:$G$12</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">figure!$H$2</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">figure!$H$3:$H$12</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">figure!$I$2</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">figure!$I$3:$I$12</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">figure!$A$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">figure!$A$3:$A$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">figure!$B$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">figure!$B$3:$B$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">figure!$L$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">figure!$C$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">figure!$C$3:$C$12</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">figure!$D$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">figure!$D$3:$D$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">figure!$L$3:$L$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">figure!$M$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">figure!$M$3:$M$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">figure!$N$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">figure!$K$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">figure!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">figure!$L$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">figure!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">figure!$B$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">figure!$M$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">figure!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">figure!$N$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">figure!$A$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">figure!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">figure!$B$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">figure!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">figure!$C$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">figure!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">figure!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">figure!$D$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">figure!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">figure!$C$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">figure!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">figure!$D$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">figure!$D$3:$D$12</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">figure!$F$2</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">figure!$F$3:$F$12</definedName>
   </definedNames>
@@ -340,32 +348,39 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{3BEA1424-286C-4F83-B3DE-7132DC6672A7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -377,7 +392,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{91E3293C-25D7-4BF3-8FB7-38205ED1A409}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -389,7 +404,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{935F5566-C031-40E0-8037-50980D49B467}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -401,7 +416,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{48E38FCC-3875-4650-9F13-D1066C0B58E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -412,7 +427,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:catScaling gapWidth="0.270000011"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -420,14 +435,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr>
+                  <a:defRPr sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -437,7 +452,7 @@
                   </a:rPr>
                   <a:t>NCER</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -483,9 +498,7 @@
   </cx:chart>
   <cx:spPr>
     <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </cx:spPr>
   <cx:printSettings>
@@ -501,32 +514,41 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{1AA831B5-0C30-4FC0-9EDB-08DEFF05B63C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -539,7 +561,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DC9568AE-202C-4551-B6F6-B3FA068850CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -552,7 +574,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C99FC074-020F-41DB-A8FC-8DA9E8B937B3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -565,7 +587,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1B1DC616-E15E-4A3C-9510-17540D8C2A4A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -577,39 +599,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
-        <cx:title>
-          <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr b="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Entry Speed</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
-        </cx:title>
+        <cx:catScaling gapWidth="0.270000011"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -708,6 +698,11 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
   </cx:spPr>
 </cx:chartSpace>
 </file>
@@ -739,6 +734,13 @@
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{32848778-98A6-4ED1-A4CB-FFDCD2F9EF41}">
           <cx:tx>
             <cx:txData>
@@ -789,7 +791,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:catScaling gapWidth="0.270000011"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -797,14 +799,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200">
+                  <a:defRPr sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -814,7 +816,7 @@
                   </a:rPr>
                   <a:t>TER</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -837,14 +839,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200">
+                  <a:defRPr sz="1600">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -854,7 +856,7 @@
                   </a:rPr>
                   <a:t>Error Rate</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -922,9 +924,7 @@
   </cx:chart>
   <cx:spPr>
     <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </cx:spPr>
   <cx:printSettings>
@@ -2604,16 +2604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2649,8 +2649,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8907780" y="3322320"/>
-              <a:ext cx="3962400" cy="2156460"/>
+              <a:off x="9494520" y="3299460"/>
+              <a:ext cx="3855720" cy="2156460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2683,7 +2683,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
@@ -2727,8 +2727,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="952500" y="3017520"/>
-              <a:ext cx="3962400" cy="2529840"/>
+              <a:off x="1074420" y="3017520"/>
+              <a:ext cx="3840480" cy="2529840"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2761,7 +2761,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
@@ -2805,8 +2805,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5364480" y="2948940"/>
-              <a:ext cx="3962400" cy="2529840"/>
+              <a:off x="5471160" y="2948940"/>
+              <a:ext cx="3855720" cy="2529840"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3990,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -5714,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2AED30-E9E4-42F3-9AE7-A190D314D87C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
+++ b/Assets/DataProcessing/Speed_Err_shadowclone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE525308-C0F7-4E82-AF67-C69AB94FCC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084190DB-ABD3-482C-8295-9B74616DF844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSPad" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,28 @@
     <sheet name="figure" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">figure!$K$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">figure!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">figure!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">figure!$A$3:$A$12</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">figure!$G$2</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">figure!$G$3:$G$12</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">figure!$H$2</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">figure!$H$3:$H$12</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">figure!$I$2</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">figure!$I$3:$I$12</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">figure!$A$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">figure!$A$3:$A$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">figure!$B$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">figure!$B$3:$B$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">figure!$L$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">figure!$C$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">figure!$C$3:$C$12</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">figure!$D$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">figure!$D$3:$D$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">figure!$L$3:$L$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">figure!$M$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">figure!$M$3:$M$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">figure!$N$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">figure!$K$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">figure!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">figure!$L$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">figure!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">figure!$B$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">figure!$M$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">figure!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">figure!$N$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">figure!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">figure!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">figure!$C$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">figure!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">figure!$D$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">figure!$D$3:$D$12</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">figure!$F$2</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">figure!$F$3:$F$12</definedName>
   </definedNames>
@@ -340,22 +340,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -365,7 +365,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3BEA1424-286C-4F83-B3DE-7132DC6672A7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -377,7 +377,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{91E3293C-25D7-4BF3-8FB7-38205ED1A409}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -389,7 +389,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{935F5566-C031-40E0-8037-50980D49B467}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -401,7 +401,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{48E38FCC-3875-4650-9F13-D1066C0B58E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -501,22 +501,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -526,7 +526,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1AA831B5-0C30-4FC0-9EDB-08DEFF05B63C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>SKPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -539,7 +539,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DC9568AE-202C-4551-B6F6-B3FA068850CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>SKPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -552,7 +552,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C99FC074-020F-41DB-A8FC-8DA9E8B937B3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>FanPad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -565,7 +565,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1B1DC616-E15E-4A3C-9510-17540D8C2A4A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>FanPad+Overlap</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3990,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4270,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5697,6 +5697,48 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>B49/(B49+B52)</f>
+        <v>1.6897034746485726E-2</v>
+      </c>
+      <c r="K58">
+        <f>K49/(K49+K52)</f>
+        <v>1.1082608136471388E-3</v>
+      </c>
+      <c r="S58">
+        <f>S49/(S49+S52)</f>
+        <v>4.9431867188043212E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>B50/(B50+B52)</f>
+        <v>0.18745546420347939</v>
+      </c>
+      <c r="K59">
+        <f>K50/(K50+K52)</f>
+        <v>3.7838276590400138E-4</v>
+      </c>
+      <c r="S59">
+        <f>S50/(S50+S52)</f>
+        <v>3.3880112408450989E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>B51/(B51+B52)</f>
+        <v>3.1456410815484878E-2</v>
+      </c>
+      <c r="K60">
+        <f>K51/(K51+K52)</f>
+        <v>1.1994725356112594E-2</v>
+      </c>
+      <c r="S60">
+        <f>S51/(S51+S52)</f>
+        <v>3.0830609221887739E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
